--- a/target/classes/testdatas/HandlingFrames.xlsx
+++ b/target/classes/testdatas/HandlingFrames.xlsx
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>OsVersion</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>BrowserVersion</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -25,34 +37,76 @@
     <t>Mail</t>
   </si>
   <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>v10</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>v84</t>
+  </si>
+  <si>
     <t>abc</t>
   </si>
   <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
+    <t>v11</t>
+  </si>
+  <si>
+    <t>v85</t>
+  </si>
+  <si>
     <t>def</t>
   </si>
   <si>
     <t>def@gmail.com</t>
   </si>
   <si>
+    <t>v12</t>
+  </si>
+  <si>
+    <t>v86</t>
+  </si>
+  <si>
     <t>dhf</t>
   </si>
   <si>
     <t>dhf@gmail.com</t>
   </si>
   <si>
+    <t>v13</t>
+  </si>
+  <si>
+    <t>v87</t>
+  </si>
+  <si>
     <t>bnm</t>
   </si>
   <si>
     <t>bnm@gmail.com</t>
   </si>
   <si>
+    <t>v14</t>
+  </si>
+  <si>
+    <t>v88</t>
+  </si>
+  <si>
     <t>klj</t>
   </si>
   <si>
     <t>kjl@gmail.com</t>
+  </si>
+  <si>
+    <t>v15</t>
+  </si>
+  <si>
+    <t>v89</t>
   </si>
   <si>
     <t>jhg</t>
@@ -66,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,7 +143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,7 +173,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,37 +188,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,53 +263,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,79 +287,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,103 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,15 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -471,32 +522,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,163 +544,199 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,103 +1056,190 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="17.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.8571428571429" customWidth="1"/>
+    <col min="5" max="6" width="14.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
         <v>8574858756</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
         <v>8745849845</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
         <v>9848734788</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
         <v>9845739743</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
         <v>9485398389</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
         <v>8767658687</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="abc@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="def@gmail.com"/>
-    <hyperlink ref="C4" r:id="rId3" display="dhf@gmail.com"/>
-    <hyperlink ref="C5" r:id="rId4" display="bnm@gmail.com"/>
-    <hyperlink ref="C6" r:id="rId5" display="kjl@gmail.com"/>
-    <hyperlink ref="C7" r:id="rId6" display="jhg@gmail.com"/>
+    <hyperlink ref="G2" r:id="rId1" display="abc@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="def@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId3" display="dhf@gmail.com"/>
+    <hyperlink ref="G5" r:id="rId4" display="bnm@gmail.com"/>
+    <hyperlink ref="G6" r:id="rId5" display="kjl@gmail.com"/>
+    <hyperlink ref="G7" r:id="rId6" display="jhg@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/target/classes/testdatas/HandlingFrames.xlsx
+++ b/target/classes/testdatas/HandlingFrames.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
-  <si>
-    <t>Os</t>
-  </si>
-  <si>
-    <t>OsVersion</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>BrowserVersion</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -37,76 +25,34 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>v10</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>v84</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
-    <t>v11</t>
-  </si>
-  <si>
-    <t>v85</t>
-  </si>
-  <si>
     <t>def</t>
   </si>
   <si>
     <t>def@gmail.com</t>
   </si>
   <si>
-    <t>v12</t>
-  </si>
-  <si>
-    <t>v86</t>
-  </si>
-  <si>
     <t>dhf</t>
   </si>
   <si>
     <t>dhf@gmail.com</t>
   </si>
   <si>
-    <t>v13</t>
-  </si>
-  <si>
-    <t>v87</t>
-  </si>
-  <si>
     <t>bnm</t>
   </si>
   <si>
     <t>bnm@gmail.com</t>
   </si>
   <si>
-    <t>v14</t>
-  </si>
-  <si>
-    <t>v88</t>
-  </si>
-  <si>
     <t>klj</t>
   </si>
   <si>
     <t>kjl@gmail.com</t>
-  </si>
-  <si>
-    <t>v15</t>
-  </si>
-  <si>
-    <t>v89</t>
   </si>
   <si>
     <t>jhg</t>
@@ -143,7 +89,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,7 +104,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,8 +133,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,50 +171,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,37 +202,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,31 +239,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,151 +389,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,41 +433,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,16 +463,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,20 +483,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,137 +551,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1056,22 +1001,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15.8571428571429" customWidth="1"/>
-    <col min="5" max="6" width="14.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="17.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="12.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="18.7142857142857" customWidth="1"/>
+    <col min="12" max="12" width="15.8571428571429" customWidth="1"/>
+    <col min="13" max="14" width="14.8571428571429" customWidth="1"/>
+    <col min="15" max="15" width="17.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,165 +1030,81 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2">
+        <v>8574858756</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B3">
+        <v>8745849845</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>8574858756</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>8745849845</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4">
+        <v>9848734788</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>9848734788</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
+      <c r="B5">
+        <v>9845739743</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>9845739743</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>9485398389</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>9485398389</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>8767658687</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="abc@gmail.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="def@gmail.com"/>
-    <hyperlink ref="G4" r:id="rId3" display="dhf@gmail.com"/>
-    <hyperlink ref="G5" r:id="rId4" display="bnm@gmail.com"/>
-    <hyperlink ref="G6" r:id="rId5" display="kjl@gmail.com"/>
-    <hyperlink ref="G7" r:id="rId6" display="jhg@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="abc@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="def@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="dhf@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="bnm@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId5" display="kjl@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId6" display="jhg@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
